--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6398,6 +6398,41 @@
         <v>298200</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I173" t="n">
+        <v>500300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6433,6 +6433,41 @@
         <v>500300</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1845700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6468,6 +6468,41 @@
         <v>1845700</v>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I175" t="n">
+        <v>549200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6503,6 +6503,41 @@
         <v>549200</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I176" t="n">
+        <v>837600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6538,6 +6538,41 @@
         <v>837600</v>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I177" t="n">
+        <v>784500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6573,6 +6573,41 @@
         <v>784500</v>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I178" t="n">
+        <v>304600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6608,6 +6608,41 @@
         <v>304600</v>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1591400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6643,6 +6643,41 @@
         <v>1591400</v>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3939800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6678,6 +6678,41 @@
         <v>3939800</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I181" t="n">
+        <v>7232500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6713,6 +6713,41 @@
         <v>7232500</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I182" t="n">
+        <v>7173000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6748,6 +6748,41 @@
         <v>7173000</v>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2331100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:I184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6783,6 +6783,41 @@
         <v>2331100</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I184" t="n">
+        <v>663900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I184"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6818,6 +6818,76 @@
         <v>663900</v>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I185" t="n">
+        <v>816500</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I186" t="n">
+        <v>5056700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6888,6 +6888,76 @@
         <v>5056700</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1941500</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I188" t="n">
+        <v>818900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6958,6 +6958,41 @@
         <v>818900</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1014300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6993,6 +6993,41 @@
         <v>1014300</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1041300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7028,6 +7028,41 @@
         <v>1041300</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I191" t="n">
+        <v>677600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7063,6 +7063,41 @@
         <v>677600</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I192" t="n">
+        <v>2158500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7098,6 +7098,76 @@
         <v>2158500</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I193" t="n">
+        <v>2033200</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1223400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7168,6 +7168,41 @@
         <v>1223400</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2141200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7203,6 +7203,41 @@
         <v>2141200</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I196" t="n">
+        <v>6290400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4685,11 +4685,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4703,28 +4703,28 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="F124" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="G124" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="H124" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="I124" t="n">
-        <v>4625900</v>
+        <v>6406000</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4738,28 +4738,28 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="F125" t="n">
-        <v>0.84</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>0.825</v>
+        <v>0.92</v>
       </c>
       <c r="H125" t="n">
-        <v>0.83</v>
+        <v>0.925</v>
       </c>
       <c r="I125" t="n">
-        <v>1912100</v>
+        <v>4317200</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4773,28 +4773,28 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F126" t="n">
-        <v>0.84</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G126" t="n">
-        <v>0.825</v>
+        <v>0.915</v>
       </c>
       <c r="H126" t="n">
-        <v>0.83</v>
+        <v>0.925</v>
       </c>
       <c r="I126" t="n">
-        <v>1112600</v>
+        <v>2883600</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4808,28 +4808,28 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.825</v>
+        <v>0.93</v>
       </c>
       <c r="F127" t="n">
-        <v>0.85</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>0.82</v>
+        <v>0.925</v>
       </c>
       <c r="H127" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="I127" t="n">
-        <v>2495300</v>
+        <v>3444400</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4843,28 +4843,28 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.825</v>
+        <v>0.93</v>
       </c>
       <c r="F128" t="n">
-        <v>0.835</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G128" t="n">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="H128" t="n">
-        <v>0.825</v>
+        <v>0.93</v>
       </c>
       <c r="I128" t="n">
-        <v>3809400</v>
+        <v>4833400</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4878,28 +4878,28 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F129" t="n">
-        <v>0.835</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>0.83</v>
+        <v>0.925</v>
       </c>
       <c r="H129" t="n">
-        <v>0.835</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I129" t="n">
-        <v>4680500</v>
+        <v>8432900</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4913,28 +4913,28 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.835</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>0.895</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
-        <v>0.895</v>
+        <v>0.9</v>
       </c>
       <c r="I130" t="n">
-        <v>4205200</v>
+        <v>10425300</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4948,28 +4948,28 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.885</v>
+        <v>0.905</v>
       </c>
       <c r="F131" t="n">
-        <v>0.895</v>
+        <v>0.905</v>
       </c>
       <c r="G131" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.86</v>
       </c>
-      <c r="H131" t="n">
-        <v>0.865</v>
-      </c>
       <c r="I131" t="n">
-        <v>2155700</v>
+        <v>9301100</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4983,28 +4983,28 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F132" t="n">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="G132" t="n">
-        <v>0.855</v>
+        <v>0.85</v>
       </c>
       <c r="H132" t="n">
-        <v>0.865</v>
+        <v>0.85</v>
       </c>
       <c r="I132" t="n">
-        <v>1630100</v>
+        <v>3693300</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5018,28 +5018,28 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F133" t="n">
-        <v>0.885</v>
+        <v>0.85</v>
       </c>
       <c r="G133" t="n">
-        <v>0.855</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H133" t="n">
-        <v>0.885</v>
+        <v>0.82</v>
       </c>
       <c r="I133" t="n">
-        <v>2095400</v>
+        <v>4625900</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5053,28 +5053,28 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.88</v>
+        <v>0.825</v>
       </c>
       <c r="F134" t="n">
-        <v>0.895</v>
+        <v>0.84</v>
       </c>
       <c r="G134" t="n">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="H134" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="I134" t="n">
-        <v>2402300</v>
+        <v>1912100</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5088,28 +5088,28 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F135" t="n">
-        <v>0.905</v>
+        <v>0.84</v>
       </c>
       <c r="G135" t="n">
-        <v>0.87</v>
+        <v>0.825</v>
       </c>
       <c r="H135" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="I135" t="n">
-        <v>4544100</v>
+        <v>1112600</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5123,28 +5123,28 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.895</v>
+        <v>0.825</v>
       </c>
       <c r="F136" t="n">
-        <v>0.895</v>
+        <v>0.85</v>
       </c>
       <c r="G136" t="n">
-        <v>0.875</v>
+        <v>0.82</v>
       </c>
       <c r="H136" t="n">
-        <v>0.885</v>
+        <v>0.82</v>
       </c>
       <c r="I136" t="n">
-        <v>1330100</v>
+        <v>2495300</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5158,28 +5158,28 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.88</v>
+        <v>0.825</v>
       </c>
       <c r="F137" t="n">
-        <v>0.89</v>
+        <v>0.835</v>
       </c>
       <c r="G137" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="H137" t="n">
-        <v>0.89</v>
+        <v>0.825</v>
       </c>
       <c r="I137" t="n">
-        <v>4147500</v>
+        <v>3809400</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5193,28 +5193,28 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.895</v>
+        <v>0.83</v>
       </c>
       <c r="F138" t="n">
-        <v>0.895</v>
+        <v>0.835</v>
       </c>
       <c r="G138" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="H138" t="n">
-        <v>0.885</v>
+        <v>0.835</v>
       </c>
       <c r="I138" t="n">
-        <v>1627800</v>
+        <v>4680500</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5228,28 +5228,28 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.89</v>
+        <v>0.835</v>
       </c>
       <c r="F139" t="n">
-        <v>0.89</v>
+        <v>0.895</v>
       </c>
       <c r="G139" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="H139" t="n">
-        <v>0.875</v>
+        <v>0.895</v>
       </c>
       <c r="I139" t="n">
-        <v>25013500</v>
+        <v>4205200</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5263,28 +5263,28 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.88</v>
+        <v>0.885</v>
       </c>
       <c r="F140" t="n">
-        <v>0.89</v>
+        <v>0.895</v>
       </c>
       <c r="G140" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="H140" t="n">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="I140" t="n">
-        <v>517400</v>
+        <v>2155700</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5298,28 +5298,28 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.885</v>
+        <v>0.88</v>
       </c>
       <c r="F141" t="n">
-        <v>0.885</v>
+        <v>0.88</v>
       </c>
       <c r="G141" t="n">
-        <v>0.87</v>
+        <v>0.855</v>
       </c>
       <c r="H141" t="n">
-        <v>0.87</v>
+        <v>0.865</v>
       </c>
       <c r="I141" t="n">
-        <v>276700</v>
+        <v>1630100</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.875</v>
+        <v>0.86</v>
       </c>
       <c r="F142" t="n">
-        <v>0.875</v>
+        <v>0.885</v>
       </c>
       <c r="G142" t="n">
-        <v>0.845</v>
+        <v>0.855</v>
       </c>
       <c r="H142" t="n">
-        <v>0.85</v>
+        <v>0.885</v>
       </c>
       <c r="I142" t="n">
-        <v>1476100</v>
+        <v>2095400</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5368,28 +5368,28 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F143" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G143" t="n">
         <v>0.875</v>
       </c>
-      <c r="G143" t="n">
-        <v>0.845</v>
-      </c>
       <c r="H143" t="n">
-        <v>0.875</v>
+        <v>0.89</v>
       </c>
       <c r="I143" t="n">
-        <v>945200</v>
+        <v>2402300</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5403,28 +5403,28 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.875</v>
+        <v>0.89</v>
       </c>
       <c r="F144" t="n">
-        <v>0.88</v>
+        <v>0.905</v>
       </c>
       <c r="G144" t="n">
         <v>0.87</v>
       </c>
       <c r="H144" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="I144" t="n">
-        <v>766700</v>
+        <v>4544100</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5438,28 +5438,28 @@
         </is>
       </c>
       <c r="E145" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G145" t="n">
         <v>0.875</v>
       </c>
-      <c r="F145" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.865</v>
-      </c>
       <c r="H145" t="n">
-        <v>0.88</v>
+        <v>0.885</v>
       </c>
       <c r="I145" t="n">
-        <v>2860200</v>
+        <v>1330100</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5473,28 +5473,28 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="F146" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="G146" t="n">
-        <v>0.865</v>
+        <v>0.87</v>
       </c>
       <c r="H146" t="n">
-        <v>0.875</v>
+        <v>0.89</v>
       </c>
       <c r="I146" t="n">
-        <v>952200</v>
+        <v>4147500</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5508,28 +5508,28 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.87</v>
+        <v>0.895</v>
       </c>
       <c r="F147" t="n">
-        <v>0.875</v>
+        <v>0.895</v>
       </c>
       <c r="G147" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="H147" t="n">
-        <v>0.875</v>
+        <v>0.885</v>
       </c>
       <c r="I147" t="n">
-        <v>634500</v>
+        <v>1627800</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5543,7 +5543,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F148" t="n">
         <v>0.89</v>
@@ -5555,16 +5555,16 @@
         <v>0.875</v>
       </c>
       <c r="I148" t="n">
-        <v>3312000</v>
+        <v>25013500</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5578,28 +5578,28 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="F149" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H149" t="n">
         <v>0.88</v>
       </c>
-      <c r="G149" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0.87</v>
-      </c>
       <c r="I149" t="n">
-        <v>241300</v>
+        <v>517400</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5613,28 +5613,28 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.865</v>
+        <v>0.885</v>
       </c>
       <c r="F150" t="n">
-        <v>0.865</v>
+        <v>0.885</v>
       </c>
       <c r="G150" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="H150" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="I150" t="n">
-        <v>1135900</v>
+        <v>276700</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5648,28 +5648,28 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.84</v>
+        <v>0.875</v>
       </c>
       <c r="F151" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H151" t="n">
         <v>0.85</v>
       </c>
-      <c r="G151" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0.845</v>
-      </c>
       <c r="I151" t="n">
-        <v>309800</v>
+        <v>1476100</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5683,28 +5683,28 @@
         </is>
       </c>
       <c r="E152" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G152" t="n">
         <v>0.845</v>
       </c>
-      <c r="F152" t="n">
-        <v>0.845</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.83</v>
-      </c>
       <c r="H152" t="n">
-        <v>0.835</v>
+        <v>0.875</v>
       </c>
       <c r="I152" t="n">
-        <v>690300</v>
+        <v>945200</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5718,28 +5718,28 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.835</v>
+        <v>0.875</v>
       </c>
       <c r="F153" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="G153" t="n">
-        <v>0.835</v>
+        <v>0.87</v>
       </c>
       <c r="H153" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="I153" t="n">
-        <v>425100</v>
+        <v>766700</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5753,28 +5753,28 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.845</v>
+        <v>0.875</v>
       </c>
       <c r="F154" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="G154" t="n">
-        <v>0.84</v>
+        <v>0.865</v>
       </c>
       <c r="H154" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="I154" t="n">
-        <v>122200</v>
+        <v>2860200</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5788,28 +5788,28 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.84</v>
+        <v>0.875</v>
       </c>
       <c r="F155" t="n">
-        <v>0.845</v>
+        <v>0.88</v>
       </c>
       <c r="G155" t="n">
-        <v>0.835</v>
+        <v>0.865</v>
       </c>
       <c r="H155" t="n">
-        <v>0.845</v>
+        <v>0.875</v>
       </c>
       <c r="I155" t="n">
-        <v>451600</v>
+        <v>952200</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5823,28 +5823,28 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.845</v>
+        <v>0.87</v>
       </c>
       <c r="F156" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="G156" t="n">
-        <v>0.835</v>
+        <v>0.87</v>
       </c>
       <c r="H156" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="I156" t="n">
-        <v>559600</v>
+        <v>634500</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5858,28 +5858,28 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F157" t="n">
-        <v>0.855</v>
+        <v>0.89</v>
       </c>
       <c r="G157" t="n">
-        <v>0.835</v>
+        <v>0.87</v>
       </c>
       <c r="H157" t="n">
-        <v>0.835</v>
+        <v>0.875</v>
       </c>
       <c r="I157" t="n">
-        <v>459300</v>
+        <v>3312000</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5893,28 +5893,28 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.835</v>
+        <v>0.875</v>
       </c>
       <c r="F158" t="n">
-        <v>0.845</v>
+        <v>0.88</v>
       </c>
       <c r="G158" t="n">
-        <v>0.835</v>
+        <v>0.865</v>
       </c>
       <c r="H158" t="n">
-        <v>0.845</v>
+        <v>0.87</v>
       </c>
       <c r="I158" t="n">
-        <v>1438000</v>
+        <v>241300</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5928,28 +5928,28 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.84</v>
+        <v>0.865</v>
       </c>
       <c r="F159" t="n">
-        <v>0.845</v>
+        <v>0.865</v>
       </c>
       <c r="G159" t="n">
         <v>0.83</v>
       </c>
       <c r="H159" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="I159" t="n">
-        <v>2059700</v>
+        <v>1135900</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.825</v>
+        <v>0.84</v>
       </c>
       <c r="F160" t="n">
-        <v>0.835</v>
+        <v>0.85</v>
       </c>
       <c r="G160" t="n">
-        <v>0.795</v>
+        <v>0.84</v>
       </c>
       <c r="H160" t="n">
-        <v>0.8</v>
+        <v>0.845</v>
       </c>
       <c r="I160" t="n">
-        <v>3588000</v>
+        <v>309800</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5998,28 +5998,28 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.845</v>
       </c>
       <c r="F161" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.845</v>
       </c>
       <c r="G161" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="H161" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.835</v>
       </c>
       <c r="I161" t="n">
-        <v>386100</v>
+        <v>690300</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6033,28 +6033,28 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.82</v>
+        <v>0.835</v>
       </c>
       <c r="F162" t="n">
-        <v>0.825</v>
+        <v>0.84</v>
       </c>
       <c r="G162" t="n">
-        <v>0.8</v>
+        <v>0.835</v>
       </c>
       <c r="H162" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="I162" t="n">
-        <v>486700</v>
+        <v>425100</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6068,28 +6068,28 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.8</v>
+        <v>0.845</v>
       </c>
       <c r="F163" t="n">
-        <v>0.805</v>
+        <v>0.85</v>
       </c>
       <c r="G163" t="n">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="H163" t="n">
-        <v>0.785</v>
+        <v>0.84</v>
       </c>
       <c r="I163" t="n">
-        <v>2289600</v>
+        <v>122200</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6103,28 +6103,28 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.785</v>
+        <v>0.84</v>
       </c>
       <c r="F164" t="n">
-        <v>0.795</v>
+        <v>0.845</v>
       </c>
       <c r="G164" t="n">
-        <v>0.775</v>
+        <v>0.835</v>
       </c>
       <c r="H164" t="n">
-        <v>0.785</v>
+        <v>0.845</v>
       </c>
       <c r="I164" t="n">
-        <v>1769800</v>
+        <v>451600</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6138,28 +6138,28 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.785</v>
+        <v>0.845</v>
       </c>
       <c r="F165" t="n">
-        <v>0.795</v>
+        <v>0.85</v>
       </c>
       <c r="G165" t="n">
-        <v>0.765</v>
+        <v>0.835</v>
       </c>
       <c r="H165" t="n">
-        <v>0.765</v>
+        <v>0.85</v>
       </c>
       <c r="I165" t="n">
-        <v>2186300</v>
+        <v>559600</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6173,28 +6173,28 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.765</v>
+        <v>0.84</v>
       </c>
       <c r="F166" t="n">
-        <v>0.775</v>
+        <v>0.855</v>
       </c>
       <c r="G166" t="n">
-        <v>0.755</v>
+        <v>0.835</v>
       </c>
       <c r="H166" t="n">
-        <v>0.77</v>
+        <v>0.835</v>
       </c>
       <c r="I166" t="n">
-        <v>1420000</v>
+        <v>459300</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6208,28 +6208,28 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.75</v>
+        <v>0.835</v>
       </c>
       <c r="F167" t="n">
-        <v>0.76</v>
+        <v>0.845</v>
       </c>
       <c r="G167" t="n">
-        <v>0.74</v>
+        <v>0.835</v>
       </c>
       <c r="H167" t="n">
-        <v>0.75</v>
+        <v>0.845</v>
       </c>
       <c r="I167" t="n">
-        <v>1080300</v>
+        <v>1438000</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6243,28 +6243,28 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="F168" t="n">
-        <v>0.77</v>
+        <v>0.845</v>
       </c>
       <c r="G168" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="H168" t="n">
-        <v>0.755</v>
+        <v>0.83</v>
       </c>
       <c r="I168" t="n">
-        <v>1215500</v>
+        <v>2059700</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6278,28 +6278,28 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.76</v>
+        <v>0.825</v>
       </c>
       <c r="F169" t="n">
-        <v>0.77</v>
+        <v>0.835</v>
       </c>
       <c r="G169" t="n">
-        <v>0.745</v>
+        <v>0.795</v>
       </c>
       <c r="H169" t="n">
-        <v>0.745</v>
+        <v>0.8</v>
       </c>
       <c r="I169" t="n">
-        <v>2024800</v>
+        <v>3588000</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6313,28 +6313,28 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.765</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F170" t="n">
-        <v>0.775</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G170" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H170" t="n">
-        <v>0.77</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="I170" t="n">
-        <v>1594400</v>
+        <v>386100</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6348,28 +6348,28 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.775</v>
+        <v>0.82</v>
       </c>
       <c r="F171" t="n">
-        <v>0.805</v>
+        <v>0.825</v>
       </c>
       <c r="G171" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="H171" t="n">
         <v>0.8</v>
       </c>
       <c r="I171" t="n">
-        <v>2521800</v>
+        <v>486700</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6383,10 +6383,10 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.795</v>
+        <v>0.8</v>
       </c>
       <c r="F172" t="n">
-        <v>0.795</v>
+        <v>0.805</v>
       </c>
       <c r="G172" t="n">
         <v>0.78</v>
@@ -6395,16 +6395,16 @@
         <v>0.785</v>
       </c>
       <c r="I172" t="n">
-        <v>298200</v>
+        <v>2289600</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6418,28 +6418,28 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.78</v>
+        <v>0.785</v>
       </c>
       <c r="F173" t="n">
-        <v>0.79</v>
+        <v>0.795</v>
       </c>
       <c r="G173" t="n">
         <v>0.775</v>
       </c>
       <c r="H173" t="n">
-        <v>0.78</v>
+        <v>0.785</v>
       </c>
       <c r="I173" t="n">
-        <v>500300</v>
+        <v>1769800</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6453,28 +6453,28 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.78</v>
+        <v>0.785</v>
       </c>
       <c r="F174" t="n">
-        <v>0.78</v>
+        <v>0.795</v>
       </c>
       <c r="G174" t="n">
-        <v>0.76</v>
+        <v>0.765</v>
       </c>
       <c r="H174" t="n">
-        <v>0.78</v>
+        <v>0.765</v>
       </c>
       <c r="I174" t="n">
-        <v>1845700</v>
+        <v>2186300</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6488,28 +6488,28 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.78</v>
+        <v>0.765</v>
       </c>
       <c r="F175" t="n">
-        <v>0.785</v>
+        <v>0.775</v>
       </c>
       <c r="G175" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H175" t="n">
         <v>0.77</v>
       </c>
-      <c r="H175" t="n">
-        <v>0.78</v>
-      </c>
       <c r="I175" t="n">
-        <v>549200</v>
+        <v>1420000</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6523,28 +6523,28 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.775</v>
+        <v>0.75</v>
       </c>
       <c r="F176" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="G176" t="n">
-        <v>0.765</v>
+        <v>0.74</v>
       </c>
       <c r="H176" t="n">
-        <v>0.765</v>
+        <v>0.75</v>
       </c>
       <c r="I176" t="n">
-        <v>837600</v>
+        <v>1080300</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6558,28 +6558,28 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.765</v>
+        <v>0.75</v>
       </c>
       <c r="F177" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G177" t="n">
-        <v>0.765</v>
+        <v>0.75</v>
       </c>
       <c r="H177" t="n">
-        <v>0.775</v>
+        <v>0.755</v>
       </c>
       <c r="I177" t="n">
-        <v>784500</v>
+        <v>1215500</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6593,28 +6593,28 @@
         </is>
       </c>
       <c r="E178" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F178" t="n">
         <v>0.77</v>
       </c>
-      <c r="F178" t="n">
-        <v>0.785</v>
-      </c>
       <c r="G178" t="n">
-        <v>0.77</v>
+        <v>0.745</v>
       </c>
       <c r="H178" t="n">
-        <v>0.775</v>
+        <v>0.745</v>
       </c>
       <c r="I178" t="n">
-        <v>304600</v>
+        <v>2024800</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6628,28 +6628,28 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.78</v>
+        <v>0.765</v>
       </c>
       <c r="F179" t="n">
-        <v>0.78</v>
+        <v>0.775</v>
       </c>
       <c r="G179" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="H179" t="n">
         <v>0.77</v>
       </c>
       <c r="I179" t="n">
-        <v>1591400</v>
+        <v>1594400</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6663,28 +6663,28 @@
         </is>
       </c>
       <c r="E180" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G180" t="n">
         <v>0.77</v>
       </c>
-      <c r="F180" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.745</v>
-      </c>
       <c r="H180" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I180" t="n">
-        <v>3939800</v>
+        <v>2521800</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6698,28 +6698,28 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.755</v>
+        <v>0.795</v>
       </c>
       <c r="F181" t="n">
-        <v>0.76</v>
+        <v>0.795</v>
       </c>
       <c r="G181" t="n">
-        <v>0.735</v>
+        <v>0.78</v>
       </c>
       <c r="H181" t="n">
-        <v>0.735</v>
+        <v>0.785</v>
       </c>
       <c r="I181" t="n">
-        <v>7232500</v>
+        <v>298200</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6733,28 +6733,28 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="F182" t="n">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="G182" t="n">
-        <v>0.715</v>
+        <v>0.775</v>
       </c>
       <c r="H182" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="I182" t="n">
-        <v>7173000</v>
+        <v>500300</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6768,28 +6768,28 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="F183" t="n">
-        <v>0.735</v>
+        <v>0.78</v>
       </c>
       <c r="G183" t="n">
-        <v>0.715</v>
+        <v>0.76</v>
       </c>
       <c r="H183" t="n">
-        <v>0.725</v>
+        <v>0.78</v>
       </c>
       <c r="I183" t="n">
-        <v>2331100</v>
+        <v>1845700</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6803,28 +6803,28 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="F184" t="n">
-        <v>0.72</v>
+        <v>0.785</v>
       </c>
       <c r="G184" t="n">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="H184" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="I184" t="n">
-        <v>663900</v>
+        <v>549200</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6838,28 +6838,28 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.715</v>
+        <v>0.775</v>
       </c>
       <c r="F185" t="n">
-        <v>0.725</v>
+        <v>0.78</v>
       </c>
       <c r="G185" t="n">
-        <v>0.715</v>
+        <v>0.765</v>
       </c>
       <c r="H185" t="n">
-        <v>0.715</v>
+        <v>0.765</v>
       </c>
       <c r="I185" t="n">
-        <v>816500</v>
+        <v>837600</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6873,28 +6873,28 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.71</v>
+        <v>0.765</v>
       </c>
       <c r="F186" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="G186" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.765</v>
       </c>
       <c r="H186" t="n">
-        <v>0.7</v>
+        <v>0.775</v>
       </c>
       <c r="I186" t="n">
-        <v>5056700</v>
+        <v>784500</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6908,28 +6908,28 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="F187" t="n">
-        <v>0.705</v>
+        <v>0.785</v>
       </c>
       <c r="G187" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="H187" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.775</v>
       </c>
       <c r="I187" t="n">
-        <v>1941500</v>
+        <v>304600</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6943,28 +6943,28 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="F188" t="n">
-        <v>0.705</v>
+        <v>0.78</v>
       </c>
       <c r="G188" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="H188" t="n">
-        <v>0.695</v>
+        <v>0.77</v>
       </c>
       <c r="I188" t="n">
-        <v>818900</v>
+        <v>1591400</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6978,28 +6978,28 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.695</v>
+        <v>0.77</v>
       </c>
       <c r="F189" t="n">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="G189" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.745</v>
       </c>
       <c r="H189" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="I189" t="n">
-        <v>1014300</v>
+        <v>3939800</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7013,28 +7013,28 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.7</v>
+        <v>0.755</v>
       </c>
       <c r="F190" t="n">
-        <v>0.705</v>
+        <v>0.76</v>
       </c>
       <c r="G190" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.735</v>
       </c>
       <c r="H190" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.735</v>
       </c>
       <c r="I190" t="n">
-        <v>1041300</v>
+        <v>7232500</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7048,28 +7048,28 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="F191" t="n">
-        <v>0.695</v>
+        <v>0.73</v>
       </c>
       <c r="G191" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.715</v>
       </c>
       <c r="H191" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="I191" t="n">
-        <v>677600</v>
+        <v>7173000</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7083,28 +7083,28 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="F192" t="n">
-        <v>0.695</v>
+        <v>0.735</v>
       </c>
       <c r="G192" t="n">
-        <v>0.66</v>
+        <v>0.715</v>
       </c>
       <c r="H192" t="n">
-        <v>0.675</v>
+        <v>0.725</v>
       </c>
       <c r="I192" t="n">
-        <v>2158500</v>
+        <v>2331100</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7118,28 +7118,28 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="F193" t="n">
-        <v>0.675</v>
+        <v>0.72</v>
       </c>
       <c r="G193" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="H193" t="n">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="I193" t="n">
-        <v>2033200</v>
+        <v>663900</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7153,28 +7153,28 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.67</v>
+        <v>0.715</v>
       </c>
       <c r="F194" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.725</v>
       </c>
       <c r="G194" t="n">
-        <v>0.67</v>
+        <v>0.715</v>
       </c>
       <c r="H194" t="n">
-        <v>0.67</v>
+        <v>0.715</v>
       </c>
       <c r="I194" t="n">
-        <v>1223400</v>
+        <v>816500</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7188,53 +7188,368 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="F195" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H195" t="n">
-        <v>0.605</v>
+        <v>0.7</v>
       </c>
       <c r="I195" t="n">
-        <v>2141200</v>
+        <v>5056700</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1941500</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I197" t="n">
+        <v>818900</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1014300</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1041300</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I200" t="n">
+        <v>677600</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I201" t="n">
+        <v>2158500</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I202" t="n">
+        <v>2033200</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1223400</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2141200</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>6633</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>LHI</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
         <v>0.58</v>
       </c>
-      <c r="F196" t="n">
+      <c r="F205" t="n">
         <v>0.59</v>
       </c>
-      <c r="G196" t="n">
+      <c r="G205" t="n">
         <v>0.48</v>
       </c>
-      <c r="H196" t="n">
+      <c r="H205" t="n">
         <v>0.55</v>
       </c>
-      <c r="I196" t="n">
+      <c r="I205" t="n">
         <v>6290400</v>
       </c>
     </row>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7553,6 +7553,41 @@
         <v>6290400</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I206" t="n">
+        <v>3835100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7588,6 +7588,41 @@
         <v>3835100</v>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I207" t="n">
+        <v>4549900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I207"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7623,6 +7623,41 @@
         <v>4549900</v>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1691700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I208"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7658,6 +7658,41 @@
         <v>1691700</v>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I209" t="n">
+        <v>3301900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7693,6 +7693,41 @@
         <v>3301900</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I210" t="n">
+        <v>4262100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7728,6 +7728,41 @@
         <v>4262100</v>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1054900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7763,6 +7763,41 @@
         <v>1054900</v>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1326100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7798,6 +7798,41 @@
         <v>1326100</v>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I213" t="n">
+        <v>3518700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7833,6 +7833,41 @@
         <v>3518700</v>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I214" t="n">
+        <v>2792800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7868,6 +7868,41 @@
         <v>2792800</v>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I215" t="n">
+        <v>4922700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7903,6 +7903,41 @@
         <v>4922700</v>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I216" t="n">
+        <v>986200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7938,6 +7938,41 @@
         <v>986200</v>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I217" t="n">
+        <v>2308400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7973,6 +7973,41 @@
         <v>2308400</v>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I218" t="n">
+        <v>4151900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I218"/>
+  <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8008,6 +8008,41 @@
         <v>4151900</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I219" t="n">
+        <v>873800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I219"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8043,6 +8043,41 @@
         <v>873800</v>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1205100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8078,6 +8078,41 @@
         <v>1205100</v>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I221" t="n">
+        <v>2539500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8113,6 +8113,41 @@
         <v>2539500</v>
       </c>
     </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I222" t="n">
+        <v>2152500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8148,6 +8148,41 @@
         <v>2152500</v>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1466300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8183,6 +8183,41 @@
         <v>1466300</v>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I224" t="n">
+        <v>2048200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I224"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8218,6 +8218,41 @@
         <v>2048200</v>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1366400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8253,6 +8253,41 @@
         <v>1366400</v>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1618100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I226"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8288,6 +8288,41 @@
         <v>1618100</v>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1217800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8323,6 +8323,41 @@
         <v>1217800</v>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1430000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8358,6 +8358,41 @@
         <v>1430000</v>
       </c>
     </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I229" t="n">
+        <v>2006900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8393,6 +8393,41 @@
         <v>2006900</v>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I230" t="n">
+        <v>2485200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8428,6 +8428,76 @@
         <v>2485200</v>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I231" t="n">
+        <v>4714800</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I232" t="n">
+        <v>4619300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8498,6 +8498,41 @@
         <v>4619300</v>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I233" t="n">
+        <v>3066100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I233"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8533,6 +8533,111 @@
         <v>3066100</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1926300</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I235" t="n">
+        <v>925700</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1702300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I236"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8638,6 +8638,41 @@
         <v>1702300</v>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1505000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I237"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8673,6 +8673,41 @@
         <v>1505000</v>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I238" t="n">
+        <v>611700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6633.xlsx
+++ b/data/6633.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I238"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8708,6 +8708,111 @@
         <v>611700</v>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I239" t="n">
+        <v>796600</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I240" t="n">
+        <v>918500</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>LHI</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I241" t="n">
+        <v>911500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
